--- a/GPS/user_stay_point/final_card/calculate_behavior_feature.xlsx
+++ b/GPS/user_stay_point/final_card/calculate_behavior_feature.xlsx
@@ -23,15 +23,15 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId9"/>
-    <pivotCache cacheId="4" r:id="rId10"/>
-    <pivotCache cacheId="5" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="228">
   <si>
     <t>user</t>
   </si>
@@ -1472,6 +1472,24 @@
   <si>
     <t>網購</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超商</t>
+  </si>
+  <si>
+    <t>網購</t>
+  </si>
+  <si>
+    <t>電影</t>
+  </si>
+  <si>
+    <t>加油</t>
+  </si>
+  <si>
+    <t>旅遊</t>
+  </si>
+  <si>
+    <t>交通高鐵</t>
   </si>
 </sst>
 </file>
@@ -2832,7 +2850,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:Q20" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -2996,7 +3014,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0">
@@ -3079,7 +3097,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3207,7 +3225,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -8526,10 +8544,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="L11" sqref="L11:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8539,7 +8557,7 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -8561,8 +8579,29 @@
       <c r="G1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8584,8 +8623,35 @@
       <c r="G2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <f>RANK(B2,B$2:B$8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f>RANK(C2,C$2:C$8,1)</f>
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:R8" si="0">RANK(D2,D$2:D$8,1)</f>
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8607,8 +8673,35 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" si="1">RANK(B3,B$2:B$8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" si="2">RANK(C3,C$2:C$8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8630,8 +8723,35 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -8653,8 +8773,35 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8676,8 +8823,35 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8699,8 +8873,35 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -8722,8 +8923,116 @@
       <c r="G8">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>222</v>
+      </c>
+      <c r="N11" t="s">
+        <v>223</v>
+      </c>
+      <c r="O11" t="s">
+        <v>224</v>
+      </c>
+      <c r="P11" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>226</v>
+      </c>
+      <c r="R11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <f>M2/SUM($M2:$R2)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:R12" si="3">N2/SUM($M2:$R2)</f>
+        <v>0.125</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:R13" si="4">M3/SUM($M3:$R3)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>219</v>
       </c>
@@ -8745,8 +9054,35 @@
       <c r="G14" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:R14" si="5">M4/SUM($M4:$R4)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -8759,197 +9095,305 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:G15" si="0">PERCENTRANK(D$2:D$8,D2)</f>
+        <f t="shared" ref="D15:G15" si="6">PERCENTRANK(D$2:D$8,D2)</f>
         <v>0.83299999999999996</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.33300000000000002</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.83299999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:R15" si="7">M5/SUM($M5:$R5)</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>0.17857142857142858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:B21" si="1">1-PERCENTRANK($B$2:$B$8,B3)</f>
+        <f t="shared" ref="B16:B21" si="8">1-PERCENTRANK($B$2:$B$8,B3)</f>
         <v>0.5</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:G21" si="2">PERCENTRANK(C$2:C$8,C3)</f>
+        <f t="shared" ref="C16:G21" si="9">PERCENTRANK(C$2:C$8,C3)</f>
         <v>0.16600000000000001</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:R16" si="10">M6/SUM($M6:$R6)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.66600000000000004</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.16600000000000001</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.66600000000000004</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:R17" si="11">M7/SUM($M7:$R7)</f>
+        <v>0.375</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="11"/>
+        <v>0.375</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="11"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="11"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="11"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="11"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.66700000000000004</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.66600000000000004</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.66600000000000004</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.66600000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:R18" si="12">M8/SUM($M8:$R8)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="12"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="12"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="12"/>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.83399999999999996</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.33399999999999996</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.66600000000000004</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>219</v>
       </c>
@@ -8972,7 +9416,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -8981,197 +9425,197 @@
         <v>5.5685228409469843E-2</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:G26" si="3">C15/SUM($B15:$G15)</f>
+        <f t="shared" ref="C26:G26" si="13">C15/SUM($B15:$G15)</f>
         <v>0.11103701233744584</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.27775925308436145</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.11103701233744584</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.16672224074691566</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.27775925308436145</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:G27" si="4">B16/SUM($B16:$G16)</f>
+        <f t="shared" ref="B27:G27" si="14">B16/SUM($B16:$G16)</f>
         <v>0.33355570380253502</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.11074049366244162</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.55570380253502327</v>
       </c>
       <c r="F27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:G28" si="5">B17/SUM($B17:$G17)</f>
+        <f t="shared" ref="B28:G28" si="15">B17/SUM($B17:$G17)</f>
         <v>0.40032025620496403</v>
       </c>
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.26661329063250605</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>6.6453162530024035E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.26661329063250605</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:G29" si="6">B18/SUM($B18:$G18)</f>
+        <f t="shared" ref="B29:G29" si="16">B18/SUM($B18:$G18)</f>
         <v>0.1819918144611187</v>
       </c>
       <c r="C29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.27285129604365621</v>
       </c>
       <c r="D29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.18171896316507505</v>
       </c>
       <c r="F29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.18171896316507505</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.18171896316507505</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:G30" si="7">B19/SUM($B19:$G19)</f>
+        <f t="shared" ref="B30:G30" si="17">B19/SUM($B19:$G19)</f>
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="F30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:G31" si="8">B20/SUM($B20:$G20)</f>
+        <f t="shared" ref="B31:G31" si="18">B20/SUM($B20:$G20)</f>
         <v>0.50029994001199762</v>
       </c>
       <c r="C31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0.49970005998800243</v>
       </c>
       <c r="D31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:G32" si="9">B21/SUM($B21:$G21)</f>
+        <f t="shared" ref="B32:G32" si="19">B21/SUM($B21:$G21)</f>
         <v>8.3499999999999991E-2</v>
       </c>
       <c r="C32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="E32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="F32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.16650000000000001</v>
       </c>
       <c r="G32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9207,23 +9651,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="C36" t="e">
-        <f t="shared" ref="C36:G36" si="10">C25/SUM($B25:$G25)</f>
+        <f t="shared" ref="C36:G36" si="20">C25/SUM($B25:$G25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D36" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="E36" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="F36" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="G36" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -9232,27 +9676,27 @@
         <v>7</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37:G37" si="11">B26/SUM($B26:$G26)</f>
+        <f t="shared" ref="B37:G37" si="21">B26/SUM($B26:$G26)</f>
         <v>5.5685228409469843E-2</v>
       </c>
       <c r="C37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.11103701233744584</v>
       </c>
       <c r="D37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.27775925308436145</v>
       </c>
       <c r="E37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.11103701233744584</v>
       </c>
       <c r="F37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.16672224074691566</v>
       </c>
       <c r="G37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.27775925308436145</v>
       </c>
     </row>
@@ -9261,27 +9705,27 @@
         <v>8</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:G38" si="12">B27/SUM($B27:$G27)</f>
+        <f t="shared" ref="B38:G38" si="22">B27/SUM($B27:$G27)</f>
         <v>0.33355570380253508</v>
       </c>
       <c r="C38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0.11074049366244164</v>
       </c>
       <c r="D38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0.55570380253502338</v>
       </c>
       <c r="F38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -9290,27 +9734,27 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39:G39" si="13">B28/SUM($B28:$G28)</f>
+        <f t="shared" ref="B39:G39" si="23">B28/SUM($B28:$G28)</f>
         <v>0.40032025620496392</v>
       </c>
       <c r="C39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.26661329063250599</v>
       </c>
       <c r="D39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>6.6453162530024021E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.26661329063250599</v>
       </c>
       <c r="G39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -9319,27 +9763,27 @@
         <v>10</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:G40" si="14">B29/SUM($B29:$G29)</f>
+        <f t="shared" ref="B40:G40" si="24">B29/SUM($B29:$G29)</f>
         <v>0.1819918144611187</v>
       </c>
       <c r="C40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.27285129604365621</v>
       </c>
       <c r="D40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.18171896316507505</v>
       </c>
       <c r="F40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.18171896316507505</v>
       </c>
       <c r="G40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.18171896316507505</v>
       </c>
     </row>
@@ -9348,27 +9792,27 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:G41" si="15">B30/SUM($B30:$G30)</f>
+        <f t="shared" ref="B41:G41" si="25">B30/SUM($B30:$G30)</f>
         <v>0</v>
       </c>
       <c r="C41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="D41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="F41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9377,32 +9821,33 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:G42" si="16">B31/SUM($B31:$G31)</f>
+        <f t="shared" ref="B42:G42" si="26">B31/SUM($B31:$G31)</f>
         <v>0.50029994001199762</v>
       </c>
       <c r="C42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.49970005998800243</v>
       </c>
       <c r="D42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>